--- a/Wyniki 3/S1-GraphQL.xlsx
+++ b/Wyniki 3/S1-GraphQL.xlsx
@@ -8,26 +8,37 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kacpe\OneDrive\Pulpit\Projekty\Praca magisterska\Wyniki 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B751443-9816-4D71-BE10-156EF3880EA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{353B95DB-695A-48FA-AF4D-A2F8B78818EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1 rekord" sheetId="1" r:id="rId1"/>
     <sheet name="100 rekordów" sheetId="2" r:id="rId2"/>
     <sheet name="500 rekordów" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="57">
   <si>
     <t>Maksymalna liczba użytkowników</t>
   </si>
@@ -126,6 +137,78 @@
   </si>
   <si>
     <t>506,7 µs</t>
+  </si>
+  <si>
+    <t>550MB</t>
+  </si>
+  <si>
+    <t>482MB</t>
+  </si>
+  <si>
+    <t>55MB</t>
+  </si>
+  <si>
+    <t>48MB</t>
+  </si>
+  <si>
+    <t>306,5 µs</t>
+  </si>
+  <si>
+    <t>3,2GB</t>
+  </si>
+  <si>
+    <t>51MB</t>
+  </si>
+  <si>
+    <t>300,89 µs</t>
+  </si>
+  <si>
+    <t>347,2 µs</t>
+  </si>
+  <si>
+    <t>15GB</t>
+  </si>
+  <si>
+    <t>247MB</t>
+  </si>
+  <si>
+    <t>363,9 µs</t>
+  </si>
+  <si>
+    <t>16GB</t>
+  </si>
+  <si>
+    <t>254MB</t>
+  </si>
+  <si>
+    <t>421,9 µs</t>
+  </si>
+  <si>
+    <t>17GB</t>
+  </si>
+  <si>
+    <t>267MB</t>
+  </si>
+  <si>
+    <t>508,1 µs</t>
+  </si>
+  <si>
+    <t>258MB</t>
+  </si>
+  <si>
+    <t>326,9 µs</t>
+  </si>
+  <si>
+    <t>504,6 µs</t>
+  </si>
+  <si>
+    <t>266MB</t>
+  </si>
+  <si>
+    <t>505,7 µs</t>
+  </si>
+  <si>
+    <t>259MB</t>
   </si>
 </sst>
 </file>
@@ -155,7 +238,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -178,11 +261,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -194,6 +297,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -478,14 +590,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="E7:O38"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="5" max="5" width="33.7265625" customWidth="1"/>
     <col min="6" max="6" width="32.54296875" customWidth="1"/>
+    <col min="10" max="10" width="9.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="5:15" x14ac:dyDescent="0.35">
@@ -496,6 +609,7 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
+      <c r="J7" s="1"/>
     </row>
     <row r="8" spans="5:15" x14ac:dyDescent="0.35">
       <c r="E8" s="1" t="s">
@@ -513,6 +627,7 @@
       <c r="I8" s="1">
         <v>3</v>
       </c>
+      <c r="J8" s="1"/>
     </row>
     <row r="9" spans="5:15" x14ac:dyDescent="0.35">
       <c r="E9" s="3">
@@ -529,6 +644,9 @@
       </c>
       <c r="I9" s="1">
         <v>1.37</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1.51</v>
       </c>
       <c r="M9" s="1">
         <v>1.07</v>
@@ -554,6 +672,9 @@
       <c r="I10" s="1">
         <v>0</v>
       </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
       <c r="M10" s="1">
         <v>0</v>
       </c>
@@ -578,6 +699,9 @@
       <c r="I11" s="1">
         <v>131.55000000000001</v>
       </c>
+      <c r="J11" s="1">
+        <v>144.63</v>
+      </c>
       <c r="M11" s="1">
         <v>141.19999999999999</v>
       </c>
@@ -602,6 +726,9 @@
       <c r="I12" s="1">
         <v>2.13</v>
       </c>
+      <c r="J12" s="1">
+        <v>2.39</v>
+      </c>
       <c r="M12" s="1">
         <v>1.68</v>
       </c>
@@ -626,6 +753,9 @@
       <c r="I13" s="1">
         <v>2.56</v>
       </c>
+      <c r="J13" s="1">
+        <v>2.72</v>
+      </c>
       <c r="M13" s="1">
         <v>1.94</v>
       </c>
@@ -650,6 +780,9 @@
       <c r="I14" s="1">
         <v>83963</v>
       </c>
+      <c r="J14" s="1">
+        <v>83952</v>
+      </c>
       <c r="M14" s="1">
         <v>83990</v>
       </c>
@@ -674,6 +807,9 @@
       <c r="I15" s="1">
         <v>960.8</v>
       </c>
+      <c r="J15" s="1">
+        <v>960.9</v>
+      </c>
       <c r="M15" s="1">
         <v>964</v>
       </c>
@@ -698,6 +834,9 @@
       <c r="I16" s="1">
         <v>87.39</v>
       </c>
+      <c r="J16" s="1">
+        <v>87.37</v>
+      </c>
       <c r="M16" s="1">
         <v>87.45</v>
       </c>
@@ -722,6 +861,9 @@
       <c r="I17" s="1">
         <v>55</v>
       </c>
+      <c r="J17" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="M17" s="1">
         <v>48</v>
       </c>
@@ -746,6 +888,9 @@
       <c r="I18" s="1">
         <v>48</v>
       </c>
+      <c r="J18" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="M18" s="1">
         <v>7.7</v>
       </c>
@@ -771,6 +916,9 @@
       </c>
       <c r="I19" s="2">
         <v>1.39</v>
+      </c>
+      <c r="J19" s="2">
+        <v>1.1399999999999999</v>
       </c>
       <c r="M19" s="2" t="s">
         <v>12</v>
@@ -796,6 +944,9 @@
       <c r="I20" s="2">
         <v>0</v>
       </c>
+      <c r="J20" s="2">
+        <v>0</v>
+      </c>
       <c r="M20" s="2">
         <v>0</v>
       </c>
@@ -820,6 +971,9 @@
       <c r="I21" s="2">
         <v>144.37</v>
       </c>
+      <c r="J21" s="2">
+        <v>141.74</v>
+      </c>
       <c r="M21" s="2">
         <v>145.07</v>
       </c>
@@ -844,6 +998,9 @@
       <c r="I22" s="2">
         <v>2.58</v>
       </c>
+      <c r="J22" s="2">
+        <v>2.06</v>
+      </c>
       <c r="M22" s="2">
         <v>1.05</v>
       </c>
@@ -868,6 +1025,9 @@
       <c r="I23" s="2">
         <v>3.58</v>
       </c>
+      <c r="J23" s="2">
+        <v>2.59</v>
+      </c>
       <c r="M23" s="2">
         <v>1.21</v>
       </c>
@@ -892,6 +1052,9 @@
       <c r="I24" s="2">
         <v>839174</v>
       </c>
+      <c r="J24" s="2">
+        <v>839284</v>
+      </c>
       <c r="M24" s="2">
         <v>839752</v>
       </c>
@@ -916,6 +1079,9 @@
       <c r="I25" s="2">
         <v>960.6</v>
       </c>
+      <c r="J25" s="2">
+        <v>960.6</v>
+      </c>
       <c r="M25" s="2">
         <v>961</v>
       </c>
@@ -940,6 +1106,9 @@
       <c r="I26" s="2">
         <v>873.57</v>
       </c>
+      <c r="J26" s="2">
+        <v>873.68</v>
+      </c>
       <c r="M26" s="2">
         <v>873.85</v>
       </c>
@@ -964,6 +1133,9 @@
       <c r="I27" s="2">
         <v>550</v>
       </c>
+      <c r="J27" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="M27" s="2">
         <v>477</v>
       </c>
@@ -988,6 +1160,9 @@
       <c r="I28" s="2">
         <v>482</v>
       </c>
+      <c r="J28" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="M28" s="2">
         <v>77</v>
       </c>
@@ -1011,7 +1186,12 @@
       <c r="H29" s="1">
         <v>412.73</v>
       </c>
-      <c r="I29" s="1"/>
+      <c r="I29" s="1">
+        <v>365.99</v>
+      </c>
+      <c r="J29" s="1">
+        <v>377.09</v>
+      </c>
       <c r="M29" s="1">
         <v>3.02</v>
       </c>
@@ -1033,7 +1213,12 @@
       <c r="H30" s="1">
         <v>0</v>
       </c>
-      <c r="I30" s="1"/>
+      <c r="I30" s="1">
+        <v>0</v>
+      </c>
+      <c r="J30" s="1">
+        <v>0</v>
+      </c>
       <c r="M30" s="1">
         <v>0</v>
       </c>
@@ -1055,7 +1240,12 @@
       <c r="H31" s="1">
         <v>931.31</v>
       </c>
-      <c r="I31" s="1"/>
+      <c r="I31" s="1">
+        <v>679.84</v>
+      </c>
+      <c r="J31" s="1">
+        <v>719.47</v>
+      </c>
       <c r="M31" s="1">
         <v>56.97</v>
       </c>
@@ -1077,7 +1267,12 @@
       <c r="H32" s="1">
         <v>687.01</v>
       </c>
-      <c r="I32" s="1"/>
+      <c r="I32" s="1">
+        <v>454.67</v>
+      </c>
+      <c r="J32" s="1">
+        <v>468.66</v>
+      </c>
       <c r="M32" s="1">
         <v>6.2</v>
       </c>
@@ -1099,7 +1294,12 @@
       <c r="H33" s="1">
         <v>703.37</v>
       </c>
-      <c r="I33" s="1"/>
+      <c r="I33" s="1">
+        <v>465.87</v>
+      </c>
+      <c r="J33" s="1">
+        <v>485.1</v>
+      </c>
       <c r="M33" s="1">
         <v>8.26</v>
       </c>
@@ -1121,7 +1321,12 @@
       <c r="H34" s="1">
         <v>2379345</v>
       </c>
-      <c r="I34" s="1"/>
+      <c r="I34" s="1">
+        <v>2460730</v>
+      </c>
+      <c r="J34" s="1">
+        <v>2440894</v>
+      </c>
       <c r="M34" s="1">
         <v>3350870</v>
       </c>
@@ -1143,7 +1348,12 @@
       <c r="H35" s="1">
         <v>960.9</v>
       </c>
-      <c r="I35" s="1"/>
+      <c r="I35" s="1">
+        <v>960.9</v>
+      </c>
+      <c r="J35" s="1">
+        <v>960.8</v>
+      </c>
       <c r="M35" s="1">
         <v>961</v>
       </c>
@@ -1165,7 +1375,12 @@
       <c r="H36" s="1">
         <v>2476.14</v>
       </c>
-      <c r="I36" s="1"/>
+      <c r="I36" s="1">
+        <v>2560.98</v>
+      </c>
+      <c r="J36" s="1">
+        <v>2540.61</v>
+      </c>
       <c r="M36" s="1">
         <v>3486.98</v>
       </c>
@@ -1187,7 +1402,12 @@
       <c r="H37" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I37" s="1"/>
+      <c r="I37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="M37" s="1">
         <v>1945.6</v>
       </c>
@@ -1209,7 +1429,12 @@
       <c r="H38" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I38" s="1"/>
+      <c r="I38" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="M38" s="1">
         <v>308</v>
       </c>
@@ -1233,10 +1458,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B4FD128-804F-4FC8-966B-DED231E7146F}">
-  <dimension ref="E7:I38"/>
+  <dimension ref="E7:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView topLeftCell="E5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1245,7 +1470,7 @@
     <col min="6" max="6" width="32.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="5:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E7" s="3" t="s">
         <v>22</v>
       </c>
@@ -1253,8 +1478,9 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E8" s="1" t="s">
         <v>0</v>
       </c>
@@ -1270,8 +1496,9 @@
       <c r="I8" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E9" s="3">
         <v>100</v>
       </c>
@@ -1284,9 +1511,14 @@
       <c r="H9" s="1">
         <v>2.79</v>
       </c>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="I9" s="1">
+        <v>3.12</v>
+      </c>
+      <c r="J9" s="1">
+        <v>2.86</v>
+      </c>
+    </row>
+    <row r="10" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E10" s="3"/>
       <c r="F10" s="1" t="s">
         <v>2</v>
@@ -1297,9 +1529,14 @@
       <c r="H10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="I10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E11" s="3"/>
       <c r="F11" s="1" t="s">
         <v>3</v>
@@ -1310,9 +1547,14 @@
       <c r="H11" s="1">
         <v>144.06</v>
       </c>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="I11" s="1">
+        <v>74.569999999999993</v>
+      </c>
+      <c r="J11" s="1">
+        <v>143.72</v>
+      </c>
+    </row>
+    <row r="12" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E12" s="3"/>
       <c r="F12" s="1" t="s">
         <v>4</v>
@@ -1323,9 +1565,14 @@
       <c r="H12" s="1">
         <v>3.76</v>
       </c>
-      <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="I12" s="1">
+        <v>4.49</v>
+      </c>
+      <c r="J12" s="1">
+        <v>3.83</v>
+      </c>
+    </row>
+    <row r="13" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E13" s="3"/>
       <c r="F13" s="1" t="s">
         <v>5</v>
@@ -1336,9 +1583,14 @@
       <c r="H13" s="1">
         <v>4.2699999999999996</v>
       </c>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="I13" s="1">
+        <v>5.23</v>
+      </c>
+      <c r="J13" s="1">
+        <v>4.29</v>
+      </c>
+    </row>
+    <row r="14" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E14" s="3"/>
       <c r="F14" s="1" t="s">
         <v>6</v>
@@ -1349,9 +1601,14 @@
       <c r="H14" s="1">
         <v>83815</v>
       </c>
-      <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="I14" s="1">
+        <v>83770</v>
+      </c>
+      <c r="J14" s="1">
+        <v>83808</v>
+      </c>
+    </row>
+    <row r="15" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E15" s="3"/>
       <c r="F15" s="1" t="s">
         <v>7</v>
@@ -1362,9 +1619,14 @@
       <c r="H15" s="1">
         <v>960.5</v>
       </c>
-      <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="I15" s="1">
+        <v>961</v>
+      </c>
+      <c r="J15" s="1">
+        <v>960.6</v>
+      </c>
+    </row>
+    <row r="16" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E16" s="3"/>
       <c r="F16" s="1" t="s">
         <v>8</v>
@@ -1375,9 +1637,14 @@
       <c r="H16" s="1">
         <v>87.27</v>
       </c>
-      <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="I16" s="1">
+        <v>87.17</v>
+      </c>
+      <c r="J16" s="1">
+        <v>87.25</v>
+      </c>
+    </row>
+    <row r="17" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E17" s="3"/>
       <c r="F17" s="1" t="s">
         <v>20</v>
@@ -1388,9 +1655,14 @@
       <c r="H17" s="1">
         <v>3.2</v>
       </c>
-      <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="I17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E18" s="3"/>
       <c r="F18" s="1" t="s">
         <v>10</v>
@@ -1401,9 +1673,14 @@
       <c r="H18" s="1">
         <v>51</v>
       </c>
-      <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="I18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E19" s="4">
         <v>1000</v>
       </c>
@@ -1419,8 +1696,11 @@
       <c r="I19" s="2">
         <v>1030</v>
       </c>
-    </row>
-    <row r="20" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="J19" s="2">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="20" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E20" s="4"/>
       <c r="F20" s="2" t="s">
         <v>2</v>
@@ -1434,8 +1714,11 @@
       <c r="I20" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="21" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="J20" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E21" s="4"/>
       <c r="F21" s="2" t="s">
         <v>3</v>
@@ -1449,8 +1732,11 @@
       <c r="I21" s="2">
         <v>1510</v>
       </c>
-    </row>
-    <row r="22" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="J21" s="2">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="22" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E22" s="4"/>
       <c r="F22" s="2" t="s">
         <v>4</v>
@@ -1464,8 +1750,11 @@
       <c r="I22" s="2">
         <v>1200</v>
       </c>
-    </row>
-    <row r="23" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="J22" s="2">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="23" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E23" s="4"/>
       <c r="F23" s="2" t="s">
         <v>5</v>
@@ -1479,8 +1768,11 @@
       <c r="I23" s="2">
         <v>1220</v>
       </c>
-    </row>
-    <row r="24" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="J23" s="2">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="24" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E24" s="4"/>
       <c r="F24" s="2" t="s">
         <v>6</v>
@@ -1494,8 +1786,11 @@
       <c r="I24" s="2">
         <v>413189</v>
       </c>
-    </row>
-    <row r="25" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="J24" s="2">
+        <v>404463</v>
+      </c>
+    </row>
+    <row r="25" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E25" s="4"/>
       <c r="F25" s="2" t="s">
         <v>7</v>
@@ -1509,8 +1804,11 @@
       <c r="I25" s="2">
         <v>960.4</v>
       </c>
-    </row>
-    <row r="26" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="J25" s="2">
+        <v>960.6</v>
+      </c>
+    </row>
+    <row r="26" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E26" s="4"/>
       <c r="F26" s="2" t="s">
         <v>8</v>
@@ -1524,8 +1822,11 @@
       <c r="I26" s="2">
         <v>430.23</v>
       </c>
-    </row>
-    <row r="27" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="J26" s="2">
+        <v>421.06</v>
+      </c>
+    </row>
+    <row r="27" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E27" s="4"/>
       <c r="F27" s="2" t="s">
         <v>20</v>
@@ -1539,8 +1840,11 @@
       <c r="I27" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="28" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="J27" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E28" s="4"/>
       <c r="F28" s="2" t="s">
         <v>10</v>
@@ -1554,8 +1858,11 @@
       <c r="I28" s="2">
         <v>252</v>
       </c>
-    </row>
-    <row r="29" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="J28" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E29" s="3">
         <v>4000</v>
       </c>
@@ -1568,9 +1875,26 @@
       <c r="H29" s="1">
         <v>7020</v>
       </c>
-      <c r="I29" s="1"/>
-    </row>
-    <row r="30" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="I29" s="1">
+        <v>7100</v>
+      </c>
+      <c r="J29" s="1">
+        <v>6680</v>
+      </c>
+      <c r="K29" s="5">
+        <v>6970</v>
+      </c>
+      <c r="L29" s="5">
+        <v>6700</v>
+      </c>
+      <c r="M29" s="5">
+        <v>6730</v>
+      </c>
+      <c r="N29" s="5">
+        <v>6930</v>
+      </c>
+    </row>
+    <row r="30" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E30" s="3"/>
       <c r="F30" s="1" t="s">
         <v>2</v>
@@ -1581,9 +1905,26 @@
       <c r="H30" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I30" s="1"/>
-    </row>
-    <row r="31" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="I30" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K30" t="s">
+        <v>50</v>
+      </c>
+      <c r="L30" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="M30" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="N30" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E31" s="3"/>
       <c r="F31" s="1" t="s">
         <v>3</v>
@@ -1594,9 +1935,26 @@
       <c r="H31" s="1">
         <v>8300</v>
       </c>
-      <c r="I31" s="1"/>
-    </row>
-    <row r="32" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="I31" s="1">
+        <v>9650</v>
+      </c>
+      <c r="J31" s="1">
+        <v>7990</v>
+      </c>
+      <c r="K31" s="5">
+        <v>9000</v>
+      </c>
+      <c r="L31" s="5">
+        <v>8090</v>
+      </c>
+      <c r="M31" s="5">
+        <v>8070</v>
+      </c>
+      <c r="N31" s="5">
+        <v>8590</v>
+      </c>
+    </row>
+    <row r="32" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E32" s="3"/>
       <c r="F32" s="1" t="s">
         <v>4</v>
@@ -1607,9 +1965,26 @@
       <c r="H32" s="1">
         <v>8140</v>
       </c>
-      <c r="I32" s="1"/>
-    </row>
-    <row r="33" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="I32" s="1">
+        <v>8360</v>
+      </c>
+      <c r="J32" s="1">
+        <v>7650</v>
+      </c>
+      <c r="K32" s="5">
+        <v>8020</v>
+      </c>
+      <c r="L32" s="5">
+        <v>7700</v>
+      </c>
+      <c r="M32" s="5">
+        <v>7750</v>
+      </c>
+      <c r="N32" s="5">
+        <v>7930</v>
+      </c>
+    </row>
+    <row r="33" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E33" s="3"/>
       <c r="F33" s="1" t="s">
         <v>5</v>
@@ -1620,9 +1995,26 @@
       <c r="H33" s="1">
         <v>8160</v>
       </c>
-      <c r="I33" s="1"/>
-    </row>
-    <row r="34" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="I33" s="1">
+        <v>8620</v>
+      </c>
+      <c r="J33" s="1">
+        <v>7700</v>
+      </c>
+      <c r="K33" s="6">
+        <v>8130</v>
+      </c>
+      <c r="L33" s="7">
+        <v>7720</v>
+      </c>
+      <c r="M33" s="7">
+        <v>7780</v>
+      </c>
+      <c r="N33" s="7">
+        <v>8050</v>
+      </c>
+    </row>
+    <row r="34" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E34" s="3"/>
       <c r="F34" s="1" t="s">
         <v>6</v>
@@ -1633,9 +2025,26 @@
       <c r="H34" s="1">
         <v>419747</v>
       </c>
-      <c r="I34" s="1"/>
-    </row>
-    <row r="35" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="I34" s="1">
+        <v>415635</v>
+      </c>
+      <c r="J34" s="1">
+        <v>438320</v>
+      </c>
+      <c r="K34" s="6">
+        <v>422548</v>
+      </c>
+      <c r="L34" s="7">
+        <v>437272</v>
+      </c>
+      <c r="M34" s="7">
+        <v>435287</v>
+      </c>
+      <c r="N34" s="7">
+        <v>424500</v>
+      </c>
+    </row>
+    <row r="35" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E35" s="3"/>
       <c r="F35" s="1" t="s">
         <v>7</v>
@@ -1646,9 +2055,26 @@
       <c r="H35" s="1">
         <v>960.6</v>
       </c>
-      <c r="I35" s="1"/>
-    </row>
-    <row r="36" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="I35" s="1">
+        <v>960.8</v>
+      </c>
+      <c r="J35" s="1">
+        <v>960.7</v>
+      </c>
+      <c r="K35" s="6">
+        <v>960.5</v>
+      </c>
+      <c r="L35" s="7">
+        <v>960.6</v>
+      </c>
+      <c r="M35" s="7">
+        <v>960.5</v>
+      </c>
+      <c r="N35" s="7">
+        <v>960.5</v>
+      </c>
+    </row>
+    <row r="36" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E36" s="3"/>
       <c r="F36" s="1" t="s">
         <v>8</v>
@@ -1659,9 +2085,26 @@
       <c r="H36" s="1">
         <v>436.98</v>
       </c>
-      <c r="I36" s="1"/>
-    </row>
-    <row r="37" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="I36" s="1">
+        <v>432.6</v>
+      </c>
+      <c r="J36" s="1">
+        <v>456.25</v>
+      </c>
+      <c r="K36" s="6">
+        <v>439.92</v>
+      </c>
+      <c r="L36" s="7">
+        <v>455.23</v>
+      </c>
+      <c r="M36" s="7">
+        <v>453.2</v>
+      </c>
+      <c r="N36" s="7">
+        <v>441.96</v>
+      </c>
+    </row>
+    <row r="37" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E37" s="3"/>
       <c r="F37" s="1" t="s">
         <v>20</v>
@@ -1672,9 +2115,26 @@
       <c r="H37" s="1">
         <v>16</v>
       </c>
-      <c r="I37" s="1"/>
-    </row>
-    <row r="38" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="I37" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="L37" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="M37" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="N37" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="5:14" x14ac:dyDescent="0.35">
       <c r="E38" s="3"/>
       <c r="F38" s="1" t="s">
         <v>10</v>
@@ -1685,7 +2145,24 @@
       <c r="H38" s="1">
         <v>256</v>
       </c>
-      <c r="I38" s="1"/>
+      <c r="I38" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K38" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="L38" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="M38" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="N38" s="5" t="s">
+        <v>56</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1702,8 +2179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5008BA1D-A9B8-490D-8D36-2848B9455033}">
   <dimension ref="E7:I38"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
